--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>MedicineName</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>H003</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -593,6 +599,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irasy\Documents\NTU Year 2\Sem 2.1\SC2002\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905BEF6-E815-4A70-87EB-9C3FB4042F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61083059-0B6D-423D-AECF-D18CBC4171AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40935" yWindow="4080" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>MedicineName</t>
   </si>
   <si>
+    <t>RequestID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>RequestedBy</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>RequestID</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>RequestedBy</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PhMarkLee</t>
-  </si>
-  <si>
-    <t>R001</t>
+    <t>P001</t>
   </si>
   <si>
     <t>New</t>
@@ -53,36 +53,6 @@
   </si>
   <si>
     <t>Aspirin</t>
-  </si>
-  <si>
-    <t>R003</t>
-  </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>R004</t>
-  </si>
-  <si>
-    <t>R005</t>
-  </si>
-  <si>
-    <t>R006</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
-    <t>Omeparazole</t>
-  </si>
-  <si>
-    <t>H003</t>
-  </si>
-  <si>
-    <t>R008</t>
-  </si>
-  <si>
-    <t>Ibuprofen</t>
   </si>
 </sst>
 </file>
@@ -134,15 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,35 +434,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>110.0</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>8</v>
       </c>
     </row>
@@ -507,112 +474,12 @@
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>50.0</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>7</v>
+      </c>
       <c r="E3" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C9" t="n" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s" s="2">
         <v>8</v>
       </c>
     </row>

--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irasy\Documents\NTU Year 2\Sem 2.1\SC2002\OOP_Proj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61083059-0B6D-423D-AECF-D18CBC4171AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BDF220-37FB-4AC3-8A20-1D8F0A66640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40935" yWindow="4080" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>MedicineName</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>Aspirin</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>H003</t>
   </si>
 </sst>
 </file>
@@ -416,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>110.0</v>
+        <v>120.0</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>7</v>
@@ -474,12 +489,46 @@
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>7</v>
       </c>
       <c r="E3" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>8</v>
       </c>
     </row>

--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>MedicineName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>H003</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">

--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>MedicineName</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Diclofenac</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -535,6 +541,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ReplenishmentRequest_List.xlsx
+++ b/data/ReplenishmentRequest_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>MedicineName</t>
   </si>
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
